--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Saa1-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Saa1-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Saa1</t>
   </si>
   <si>
     <t>Fpr2</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,40 +549,40 @@
         <v>0.031334</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4496786666666666</v>
+        <v>0.05424366666666666</v>
       </c>
       <c r="N2">
-        <v>1.349036</v>
+        <v>0.162731</v>
       </c>
       <c r="O2">
-        <v>0.003078235001572996</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="P2">
-        <v>0.003078235001572995</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="Q2">
-        <v>0.004696743780444444</v>
+        <v>0.000566557017111111</v>
       </c>
       <c r="R2">
-        <v>0.042270694024</v>
+        <v>0.005099013154</v>
       </c>
       <c r="S2">
-        <v>0.003078235001572996</v>
+        <v>9.958915065529081E-05</v>
       </c>
       <c r="T2">
-        <v>0.003078235001572995</v>
+        <v>9.958915065529084E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,40 +611,40 @@
         <v>0.031334</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>8.943258333333334</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N3">
-        <v>26.82977500000001</v>
+        <v>1.349036</v>
       </c>
       <c r="O3">
-        <v>0.0612202732094089</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="P3">
-        <v>0.06122027320940888</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="Q3">
-        <v>0.09340935220555556</v>
+        <v>0.004696743780444444</v>
       </c>
       <c r="R3">
-        <v>0.8406841698500002</v>
+        <v>0.042270694024</v>
       </c>
       <c r="S3">
-        <v>0.0612202732094089</v>
+        <v>0.000825591617106826</v>
       </c>
       <c r="T3">
-        <v>0.06122027320940888</v>
+        <v>0.0008255916171068261</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +673,10 @@
         <v>0.031334</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.4484583333333</v>
+        <v>19.12147066666667</v>
       </c>
       <c r="N4">
-        <v>394.345375</v>
+        <v>57.364412</v>
       </c>
       <c r="O4">
-        <v>0.8998186379262144</v>
+        <v>0.1180967362485193</v>
       </c>
       <c r="P4">
-        <v>0.8998186379262143</v>
+        <v>0.1180967362485194</v>
       </c>
       <c r="Q4">
-        <v>1.372935331138889</v>
+        <v>0.1997173872897778</v>
       </c>
       <c r="R4">
-        <v>12.35641798025</v>
+        <v>1.797456485608</v>
       </c>
       <c r="S4">
-        <v>0.8998186379262144</v>
+        <v>0.03510623709631338</v>
       </c>
       <c r="T4">
-        <v>0.8998186379262143</v>
+        <v>0.03510623709631339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +735,10 @@
         <v>0.031334</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2972667849383817</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +747,710 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.241885</v>
+        <v>138.8619206666667</v>
       </c>
       <c r="N5">
-        <v>15.725655</v>
+        <v>416.585762</v>
       </c>
       <c r="O5">
-        <v>0.03588285386280381</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="P5">
-        <v>0.03588285386280379</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="Q5">
-        <v>0.05474974153</v>
+        <v>1.450366474056444</v>
       </c>
       <c r="R5">
-        <v>0.49274767377</v>
+        <v>13.053298266508</v>
       </c>
       <c r="S5">
-        <v>0.03588285386280381</v>
+        <v>0.2549447997779595</v>
       </c>
       <c r="T5">
-        <v>0.03588285386280379</v>
+        <v>0.2549447997779595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01044466666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.031334</v>
+      </c>
+      <c r="I6">
+        <v>0.2972667849383817</v>
+      </c>
+      <c r="J6">
+        <v>0.2972667849383817</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.426311333333333</v>
+      </c>
+      <c r="N6">
+        <v>10.278934</v>
+      </c>
+      <c r="O6">
+        <v>0.02116135274800581</v>
+      </c>
+      <c r="P6">
+        <v>0.02116135274800582</v>
+      </c>
+      <c r="Q6">
+        <v>0.03578667977288889</v>
+      </c>
+      <c r="R6">
+        <v>0.322080117956</v>
+      </c>
+      <c r="S6">
+        <v>0.006290567296346676</v>
+      </c>
+      <c r="T6">
+        <v>0.006290567296346678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.002218</v>
+      </c>
+      <c r="H7">
+        <v>0.006654</v>
+      </c>
+      <c r="I7">
+        <v>0.06312673731346115</v>
+      </c>
+      <c r="J7">
+        <v>0.06312673731346116</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.05424366666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.162731</v>
+      </c>
+      <c r="O7">
+        <v>0.000335016072098112</v>
+      </c>
+      <c r="P7">
+        <v>0.000335016072098112</v>
+      </c>
+      <c r="Q7">
+        <v>0.0001203124526666667</v>
+      </c>
+      <c r="R7">
+        <v>0.001082812074</v>
+      </c>
+      <c r="S7">
+        <v>2.114847157912508E-05</v>
+      </c>
+      <c r="T7">
+        <v>2.114847157912508E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.002218</v>
+      </c>
+      <c r="H8">
+        <v>0.006654</v>
+      </c>
+      <c r="I8">
+        <v>0.06312673731346115</v>
+      </c>
+      <c r="J8">
+        <v>0.06312673731346116</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.4496786666666666</v>
+      </c>
+      <c r="N8">
+        <v>1.349036</v>
+      </c>
+      <c r="O8">
+        <v>0.002777275023437136</v>
+      </c>
+      <c r="P8">
+        <v>0.002777275023437136</v>
+      </c>
+      <c r="Q8">
+        <v>0.0009973872826666665</v>
+      </c>
+      <c r="R8">
+        <v>0.008976485543999999</v>
+      </c>
+      <c r="S8">
+        <v>0.0001753203108517527</v>
+      </c>
+      <c r="T8">
+        <v>0.0001753203108517528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.002218</v>
+      </c>
+      <c r="H9">
+        <v>0.006654</v>
+      </c>
+      <c r="I9">
+        <v>0.06312673731346115</v>
+      </c>
+      <c r="J9">
+        <v>0.06312673731346116</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.12147066666667</v>
+      </c>
+      <c r="N9">
+        <v>57.364412</v>
+      </c>
+      <c r="O9">
+        <v>0.1180967362485193</v>
+      </c>
+      <c r="P9">
+        <v>0.1180967362485194</v>
+      </c>
+      <c r="Q9">
+        <v>0.04241142193866666</v>
+      </c>
+      <c r="R9">
+        <v>0.381702797448</v>
+      </c>
+      <c r="S9">
+        <v>0.007455061646737386</v>
+      </c>
+      <c r="T9">
+        <v>0.007455061646737388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.002218</v>
+      </c>
+      <c r="H10">
+        <v>0.006654</v>
+      </c>
+      <c r="I10">
+        <v>0.06312673731346115</v>
+      </c>
+      <c r="J10">
+        <v>0.06312673731346116</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>138.8619206666667</v>
+      </c>
+      <c r="N10">
+        <v>416.585762</v>
+      </c>
+      <c r="O10">
+        <v>0.8576296199079396</v>
+      </c>
+      <c r="P10">
+        <v>0.8576296199079396</v>
+      </c>
+      <c r="Q10">
+        <v>0.3079957400386666</v>
+      </c>
+      <c r="R10">
+        <v>2.771961660348</v>
+      </c>
+      <c r="S10">
+        <v>0.05413935972817203</v>
+      </c>
+      <c r="T10">
+        <v>0.05413935972817205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.002218</v>
+      </c>
+      <c r="H11">
+        <v>0.006654</v>
+      </c>
+      <c r="I11">
+        <v>0.06312673731346115</v>
+      </c>
+      <c r="J11">
+        <v>0.06312673731346116</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.426311333333333</v>
+      </c>
+      <c r="N11">
+        <v>10.278934</v>
+      </c>
+      <c r="O11">
+        <v>0.02116135274800581</v>
+      </c>
+      <c r="P11">
+        <v>0.02116135274800582</v>
+      </c>
+      <c r="Q11">
+        <v>0.007599558537333333</v>
+      </c>
+      <c r="R11">
+        <v>0.068396026836</v>
+      </c>
+      <c r="S11">
+        <v>0.001335847156120852</v>
+      </c>
+      <c r="T11">
+        <v>0.001335847156120853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.022473</v>
+      </c>
+      <c r="H12">
+        <v>0.06741900000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="J12">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05424366666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.162731</v>
+      </c>
+      <c r="O12">
+        <v>0.000335016072098112</v>
+      </c>
+      <c r="P12">
+        <v>0.000335016072098112</v>
+      </c>
+      <c r="Q12">
+        <v>0.001219017921</v>
+      </c>
+      <c r="R12">
+        <v>0.010971161289</v>
+      </c>
+      <c r="S12">
+        <v>0.0002142784498636961</v>
+      </c>
+      <c r="T12">
+        <v>0.0002142784498636961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.022473</v>
+      </c>
+      <c r="H13">
+        <v>0.06741900000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="J13">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.4496786666666666</v>
+      </c>
+      <c r="N13">
+        <v>1.349036</v>
+      </c>
+      <c r="O13">
+        <v>0.002777275023437136</v>
+      </c>
+      <c r="P13">
+        <v>0.002777275023437136</v>
+      </c>
+      <c r="Q13">
+        <v>0.010105628676</v>
+      </c>
+      <c r="R13">
+        <v>0.09095065808400001</v>
+      </c>
+      <c r="S13">
+        <v>0.001776363095478557</v>
+      </c>
+      <c r="T13">
+        <v>0.001776363095478557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.022473</v>
+      </c>
+      <c r="H14">
+        <v>0.06741900000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="J14">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.12147066666667</v>
+      </c>
+      <c r="N14">
+        <v>57.364412</v>
+      </c>
+      <c r="O14">
+        <v>0.1180967362485193</v>
+      </c>
+      <c r="P14">
+        <v>0.1180967362485194</v>
+      </c>
+      <c r="Q14">
+        <v>0.4297168102920001</v>
+      </c>
+      <c r="R14">
+        <v>3.867451292628</v>
+      </c>
+      <c r="S14">
+        <v>0.07553543750546857</v>
+      </c>
+      <c r="T14">
+        <v>0.07553543750546858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.022473</v>
+      </c>
+      <c r="H15">
+        <v>0.06741900000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="J15">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>138.8619206666667</v>
+      </c>
+      <c r="N15">
+        <v>416.585762</v>
+      </c>
+      <c r="O15">
+        <v>0.8576296199079396</v>
+      </c>
+      <c r="P15">
+        <v>0.8576296199079396</v>
+      </c>
+      <c r="Q15">
+        <v>3.120643943142</v>
+      </c>
+      <c r="R15">
+        <v>28.085795488278</v>
+      </c>
+      <c r="S15">
+        <v>0.5485454604018081</v>
+      </c>
+      <c r="T15">
+        <v>0.5485454604018081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.022473</v>
+      </c>
+      <c r="H16">
+        <v>0.06741900000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="J16">
+        <v>0.6396064777481572</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.426311333333333</v>
+      </c>
+      <c r="N16">
+        <v>10.278934</v>
+      </c>
+      <c r="O16">
+        <v>0.02116135274800581</v>
+      </c>
+      <c r="P16">
+        <v>0.02116135274800582</v>
+      </c>
+      <c r="Q16">
+        <v>0.076999494594</v>
+      </c>
+      <c r="R16">
+        <v>0.692995451346</v>
+      </c>
+      <c r="S16">
+        <v>0.01353493829553828</v>
+      </c>
+      <c r="T16">
+        <v>0.01353493829553829</v>
       </c>
     </row>
   </sheetData>
